--- a/mallet/30.xlsx
+++ b/mallet/30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apovzner\Documents\Hakluyt\mallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3953C2-5A5E-4B9C-9C7D-57DB0CEFB7A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4077818-DA59-499C-99A1-593FD2E29476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10395" xr2:uid="{468B4E7C-0EDA-419C-AC8A-BFE265156530}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
   <si>
     <t>file:/C:/Users/apovzner/Documents/Hakluyt/CC_ML_FR_trimmed_morphad_lem/01_01_NNE-_0517_The_voyage_of_Arthur_K_of_Britaine_to_Island_and_the_most_Northeastern_parts_of_Europe_Anno_517_pp.003-004.txt</t>
   </si>
@@ -1810,9 +1810,6 @@
     <t xml:space="preserve">great say town lord enemy make turk army wall day assault see master captain camp shoot artillery soldier slay keep people knight rhodes trench land spain bulwark piece england give sir gate colonel fire earth breach beat thing duke city battery ordinance noble letter earl repair siege castle month yield </t>
   </si>
   <si>
-    <t xml:space="preserve">day come wind night shore ship boat anchor sail water land morning aboard take see find league clock island set town great sight depart captain run man four ride sound place coast fathom shoot cape small pinnace river piece half fair portugal company course good fall weigh fresh rock weather </t>
-  </si>
-  <si>
     <t xml:space="preserve">ice part coast land degree find sun island voyage north discover passage say sail region great way discovery west america cold heat pass year equinoctial east pole far reason prove world navigation northwest latitude experience africa winter card set south near first danger portugal seem strait know north-east certain snow </t>
   </si>
   <si>
@@ -1828,9 +1825,6 @@
     <t xml:space="preserve">ship generali fleet captain admiral sir spanish spaniard england master english sail fight shot john mariner general small man francis hand ton thomas galley pinnace force spain prize lie ordinance drake rest burn lord diverse shoot richard fire portugal near sink stand caravel road englishman pilot march gentleman course coast </t>
   </si>
   <si>
-    <t xml:space="preserve">town spaniard ship river call league come city indians country spain coast great say king land mexico year gold negro peru place store take portugal silver way port strait build harbour majesty people certain carry saint viceroy indian house stand panama fort send captain englishman island mountain inhabit indies victual </t>
-  </si>
-  <si>
     <t xml:space="preserve">river guiana spaniard gold nation berreo far call trinidad indians great orenoque town province discovery captain canoas indian rest indies west mountain way empire mile branch mouth enter peru near pass dorado fall year carapana amazones return country trade discover know lord island seek leave day victuali port kingdom manoa </t>
   </si>
   <si>
@@ -1840,9 +1834,6 @@
     <t xml:space="preserve">certain vero christ jam esse quibus nunc quod sit nomen christi quorum illi nobis sine long tandem nostrae semper primum quem write tantum quin illic eam svae qua res omnia river fidem loco ipso hunc fuisse minus satis study tempore tibi vitam nation deus nunquam videlicet annos tanta hominum quos </t>
   </si>
   <si>
-    <t xml:space="preserve">river say indians certain great see come captain find give league make lord thing tell country show begin indian fort return france sail soldier discover far day stay sign people understand mountain command pass boat seem cause near mean way wood voyage paracoussy cevola king village distant cross lake victual </t>
-  </si>
-  <si>
     <t xml:space="preserve">che nave alia sva nostra gli della vostra qual columbus suo terra grand questa nostro noi filly nel david occasion fine common quello tutti loro sopra bartholomew jesus parte cvi nostri lei altri hora colon rey detto voglia signor quale questo serenissimus sia dell honore quando dei giovanni sotto magnifico </t>
   </si>
   <si>
@@ -1973,16 +1964,147 @@
   </si>
   <si>
     <t>lng_latin_</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">day come wind night shore ship boat anchor sail water land morning aboard take see find league clock island set town great sight depart captain run man four ride sound place coast fathom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cape small pinnace river piece half fair portugal company course good fall weigh fresh rock weather </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">town spaniard ship river call league come city indians country spain coast great say king land mexico year gold </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> peru place store take portugal silver way port strait build harbour majesty people certain carry saint viceroy indian house stand panama </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> send captain englishman island mountain inhabit indies victual </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">river say indians certain great see come captain find give league make lord thing tell country show begin indian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return france sail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soldier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> discover far day stay sign people understand mountain command pass boat seem cause near mean way wood voyage paracoussy cevola king village distant cross lake victual </t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>topic_name</t>
+  </si>
+  <si>
+    <t>topic_comp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,13 +2112,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2011,11 +2152,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,442 +2478,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755A0F22-9D7C-42BD-B5D6-308444EEE854}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="9">
         <v>5.4239999999999997E-2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="10">
+        <f>B2/3.02</f>
+        <v>1.796026490066225E-2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6.4799999999999996E-3</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3/3.02</f>
+        <v>2.1456953642384107E-3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.15215000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C31" si="0">B4/3.02</f>
+        <v>5.038079470198676E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9403973509933773E-3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.7470000000000001E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0960264900662256E-3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2450331125827816E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.4370000000000006E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.462582781456954E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.8559999999999997E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.27682119205298E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>644</v>
+      </c>
+      <c r="E9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.23884</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>7.9086092715231787E-2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.0540000000000005E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3357615894039736E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.12909000000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <f>B12/3.02</f>
+        <v>4.2745033112582785E-2</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="D1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.15215000000000001</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7119205298013246E-2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.396E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6225165562913907E-3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5894039735099342E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>623</v>
+      </c>
+      <c r="E15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4.3990000000000001E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4566225165562914E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>643</v>
+      </c>
+      <c r="E16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2.7130000000000001E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.9834437086092726E-3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.074E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5562913907284765E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>642</v>
+      </c>
+      <c r="E18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.10987</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6380794701986754E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.12864999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2599337748344367E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>617</v>
+      </c>
+      <c r="E20" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.8870000000000002E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2870860927152318E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8642384105960259E-3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.44446000000000002</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14717218543046359</v>
+      </c>
+      <c r="D23" t="s">
         <v>619</v>
       </c>
-      <c r="D3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5.8599999999999998E-3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.7470000000000001E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7.4370000000000006E-2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.6469999999999996E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.532119205298013E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>625</v>
+      </c>
+      <c r="E24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7.0230000000000001E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3254966887417218E-2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5.5870000000000003E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000003E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>639</v>
+      </c>
+      <c r="E26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4.9100000000000003E-3</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6258278145695364E-3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7.9079999999999998E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6185430463576159E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>624</v>
+      </c>
+      <c r="E28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.65954999999999997</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21839403973509933</v>
+      </c>
+      <c r="D29" t="s">
+        <v>618</v>
+      </c>
+      <c r="E29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>8.390728476821192E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4.9610000000000001E-2</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6427152317880795E-2</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="D7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.8559999999999997E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>647</v>
-      </c>
-      <c r="D8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.23884</v>
-      </c>
-      <c r="C9" t="s">
-        <v>624</v>
-      </c>
-      <c r="D9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>7.0540000000000005E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.12909000000000001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>634</v>
-      </c>
-      <c r="D11" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1.396E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>638</v>
-      </c>
-      <c r="D13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>626</v>
-      </c>
-      <c r="D14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4.3990000000000001E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>646</v>
-      </c>
-      <c r="D15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2.7130000000000001E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>639</v>
-      </c>
-      <c r="D16" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.074E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>645</v>
-      </c>
-      <c r="D17" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.10987</v>
-      </c>
-      <c r="C18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.12864999999999999</v>
-      </c>
-      <c r="C19" t="s">
-        <v>620</v>
-      </c>
-      <c r="D19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3.8870000000000002E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>644</v>
-      </c>
-      <c r="D20" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2.6769999999999999E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>640</v>
-      </c>
-      <c r="D21" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.44446000000000002</v>
-      </c>
-      <c r="C22" t="s">
-        <v>622</v>
-      </c>
-      <c r="D22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>7.6469999999999996E-2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D23" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7.0230000000000001E-2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>641</v>
-      </c>
-      <c r="D24" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>5.5870000000000003E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>642</v>
-      </c>
-      <c r="D25" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>4.9100000000000003E-3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>643</v>
-      </c>
-      <c r="D26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>7.9079999999999998E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>627</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E31" s="8" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0.65954999999999997</v>
-      </c>
-      <c r="C28" t="s">
-        <v>621</v>
-      </c>
-      <c r="D28" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2.5340000000000001E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>648</v>
-      </c>
-      <c r="D29" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>4.9610000000000001E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D30" t="s">
-        <v>618</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:D30">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:E31">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2806,7 +3095,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C1" t="str">
-        <f t="array" ref="C1:AF1">TRANSPOSE(keys!C1:C30)</f>
+        <f t="array" ref="C1:AF1">TRANSPOSE(keys!D2:D31)</f>
         <v>reg_turkey/mid-east</v>
       </c>
       <c r="D1" t="str">
